--- a/modified.xlsx
+++ b/modified.xlsx
@@ -473,7 +473,7 @@
         <v>2.9999999999</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44268.55798272209</v>
+        <v>44268.56201077896</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
